--- a/China_Acc_Results/Result/Raster_Density_gdp.xlsx
+++ b/China_Acc_Results/Result/Raster_Density_gdp.xlsx
@@ -487,19 +487,19 @@
         <v>0.05446438863873482</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1196941211819649</v>
+        <v>0.1162114292383194</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1050751954317093</v>
+        <v>0.1028011217713356</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1036324501037598</v>
+        <v>0.1018326506018639</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1062843352556229</v>
+        <v>0.1052325740456581</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1052883490920067</v>
+        <v>0.1042366027832031</v>
       </c>
       <c r="K2" t="n">
         <v>0.1075191050767899</v>
@@ -582,10 +582,10 @@
         <v>0.08567626774311066</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07366084307432175</v>
+        <v>0.0741288885474205</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06334726512432098</v>
+        <v>0.06358640640974045</v>
       </c>
     </row>
     <row r="5">
@@ -764,10 +764,10 @@
         <v>0.1089980080723763</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09302676469087601</v>
+        <v>0.09312799572944641</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1340315937995911</v>
+        <v>0.1340805143117905</v>
       </c>
     </row>
     <row r="10">
@@ -824,22 +824,22 @@
         <v>0.2346552610397339</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2210656851530075</v>
+        <v>0.2210779637098312</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2186558991670609</v>
+        <v>0.2186670303344727</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2165128141641617</v>
+        <v>0.2165263742208481</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2168515473604202</v>
+        <v>0.2168627232313156</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2174371033906937</v>
+        <v>0.2174319177865982</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2027645409107208</v>
+        <v>0.2027627229690552</v>
       </c>
     </row>
     <row r="12">
@@ -915,7 +915,7 @@
         <v>0.1072169318795204</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09021779149770737</v>
+        <v>0.08937831223011017</v>
       </c>
     </row>
     <row r="14">
@@ -973,12 +973,24 @@
       <c r="F15" t="n">
         <v>0.09343741089105606</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0.07383154332637787</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.07685238867998123</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.07394957542419434</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.07337342202663422</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.08115049451589584</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.08048483729362488</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1071,19 +1083,19 @@
         <v>0.05937177687883377</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05473138391971588</v>
+        <v>0.05473040416836739</v>
       </c>
       <c r="I18" t="n">
-        <v>0.05515660718083382</v>
+        <v>0.0551556758582592</v>
       </c>
       <c r="J18" t="n">
-        <v>0.05519774928689003</v>
+        <v>0.05519680678844452</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05171925574541092</v>
+        <v>0.05172541365027428</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04735364392399788</v>
+        <v>0.04735811054706573</v>
       </c>
     </row>
     <row r="19">
@@ -1102,22 +1114,22 @@
         <v>0.02731550484895706</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09881184250116348</v>
+        <v>0.09797490388154984</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2161457538604736</v>
+        <v>0.2157170623540878</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2397943735122681</v>
+        <v>0.2394627630710602</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2279236316680908</v>
+        <v>0.2275856286287308</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1876490563154221</v>
+        <v>0.1875665485858917</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1771232038736343</v>
+        <v>0.177073135972023</v>
       </c>
     </row>
     <row r="20">
@@ -1215,8 +1227,12 @@
       <c r="J22" t="n">
         <v>0.1350982636213303</v>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0.1173656731843948</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.1266326308250427</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1352,7 +1368,7 @@
         <v>0.1343953758478165</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1702145338058472</v>
+        <v>0.1642856895923615</v>
       </c>
       <c r="H26" t="n">
         <v>0.1316087394952774</v>
@@ -1422,16 +1438,16 @@
         <v>0.105318658053875</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1072452738881111</v>
+        <v>0.1076677143573761</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1080024987459183</v>
+        <v>0.1081962659955025</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1032775267958641</v>
+        <v>0.1034480929374695</v>
       </c>
       <c r="J28" t="n">
-        <v>0.101202555000782</v>
+        <v>0.1015382036566734</v>
       </c>
       <c r="K28" t="n">
         <v>0.07963108271360397</v>
@@ -1473,7 +1489,7 @@
         <v>0.07814072817564011</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0737445279955864</v>
+        <v>0.07374502718448639</v>
       </c>
     </row>
     <row r="30">
@@ -1503,10 +1519,18 @@
       <c r="H30" t="n">
         <v>0.177840381860733</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0.1672918200492859</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.166239932179451</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1533077657222748</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.1496446430683136</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1777,7 +1801,7 @@
         <v>0.09537170827388763</v>
       </c>
       <c r="L37" t="n">
-        <v>0.08854832500219345</v>
+        <v>0.08852396905422211</v>
       </c>
     </row>
     <row r="38">
@@ -1884,10 +1908,10 @@
         <v>0.2108042687177658</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2003652602434158</v>
+        <v>0.1991493403911591</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1890547871589661</v>
+        <v>0.1881464719772339</v>
       </c>
     </row>
     <row r="41">
@@ -1923,8 +1947,12 @@
       <c r="J41" t="n">
         <v>0.06784737855195999</v>
       </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>0.04965425655245781</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.04558588564395905</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1975,10 +2003,10 @@
         <v>0.07817083597183228</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09387002140283585</v>
+        <v>0.09296832233667374</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09706760942935944</v>
+        <v>0.09684225171804428</v>
       </c>
       <c r="H43" t="n">
         <v>0.1013934165239334</v>
@@ -1987,7 +2015,7 @@
         <v>0.09548282623291016</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0952850803732872</v>
+        <v>0.09518236666917801</v>
       </c>
       <c r="K43" t="n">
         <v>0.0932651162147522</v>
@@ -2144,7 +2172,9 @@
       <c r="K47" t="n">
         <v>0.06138097122311592</v>
       </c>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>0.0722024142742157</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2215,7 +2245,7 @@
         <v>0.1451864838600159</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1211640238761902</v>
+        <v>0.1209761574864388</v>
       </c>
     </row>
     <row r="50">
@@ -2286,10 +2316,10 @@
         <v>0.1246069818735123</v>
       </c>
       <c r="K51" t="n">
-        <v>0.1416180729866028</v>
+        <v>0.1415953040122986</v>
       </c>
       <c r="L51" t="n">
-        <v>0.123326487839222</v>
+        <v>0.1232955306768417</v>
       </c>
     </row>
     <row r="52">
@@ -2328,7 +2358,9 @@
       <c r="K52" t="n">
         <v>0.08461856096982956</v>
       </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>0.07746642082929611</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2390,7 +2422,7 @@
         <v>0.06450467556715012</v>
       </c>
       <c r="K54" t="n">
-        <v>0.05981583520770073</v>
+        <v>0.05952854827046394</v>
       </c>
       <c r="L54" t="n">
         <v>0.06802146136760712</v>
@@ -2424,7 +2456,7 @@
         <v>0.0598294734954834</v>
       </c>
       <c r="I55" t="n">
-        <v>0.06018548831343651</v>
+        <v>0.06017505377531052</v>
       </c>
       <c r="J55" t="n">
         <v>0.05620265752077103</v>
@@ -2478,10 +2510,10 @@
         <v>0.2074137926101685</v>
       </c>
       <c r="K57" t="n">
-        <v>0.08198284357786179</v>
+        <v>0.08203543722629547</v>
       </c>
       <c r="L57" t="n">
-        <v>0.09550909698009491</v>
+        <v>0.09553462266921997</v>
       </c>
     </row>
     <row r="58">
@@ -2566,10 +2598,10 @@
         <v>0.2677083313465118</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1275204718112946</v>
+        <v>0.1276592165231705</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1200096905231476</v>
+        <v>0.120193712413311</v>
       </c>
       <c r="G60" t="n">
         <v>0.1048108488321304</v>
@@ -3000,7 +3032,7 @@
         <v>0.05133186280727386</v>
       </c>
       <c r="K71" t="n">
-        <v>0.09868666529655457</v>
+        <v>0.09866547584533691</v>
       </c>
       <c r="L71" t="n">
         <v>0.1005547121167183</v>
@@ -3114,10 +3146,10 @@
         <v>0.07151921838521957</v>
       </c>
       <c r="K74" t="n">
-        <v>0.06649143993854523</v>
+        <v>0.06656996160745621</v>
       </c>
       <c r="L74" t="n">
-        <v>0.07212277501821518</v>
+        <v>0.07217567414045334</v>
       </c>
     </row>
     <row r="75">
@@ -3170,10 +3202,10 @@
         <v>0.1166345775127411</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1336676180362701</v>
+        <v>0.1349281072616577</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1354769170284271</v>
+        <v>0.1372484117746353</v>
       </c>
       <c r="G76" t="n">
         <v>0.1028933227062225</v>
@@ -3228,10 +3260,10 @@
         <v>0.1800064593553543</v>
       </c>
       <c r="K77" t="n">
-        <v>0.1636928617954254</v>
+        <v>0.1637011021375656</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1617842018604279</v>
+        <v>0.1617908030748367</v>
       </c>
     </row>
     <row r="78">
@@ -3377,7 +3409,7 @@
         <v>0.07396479696035385</v>
       </c>
       <c r="L81" t="n">
-        <v>0.09267149120569229</v>
+        <v>0.09273393452167511</v>
       </c>
     </row>
     <row r="82">
@@ -3534,7 +3566,7 @@
         <v>0.2206743806600571</v>
       </c>
       <c r="K85" t="n">
-        <v>0.1711529791355133</v>
+        <v>0.1712660193443298</v>
       </c>
       <c r="L85" t="n">
         <v>0.1605377942323685</v>
@@ -3556,22 +3588,22 @@
         <v>0.08241608738899231</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1811391860246658</v>
+        <v>0.1789712160825729</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1405219584703445</v>
+        <v>0.1374113857746124</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2075146436691284</v>
+        <v>0.2071878165006638</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1905864626169205</v>
+        <v>0.1903506368398666</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1926155984401703</v>
+        <v>0.1923969388008118</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1991340219974518</v>
+        <v>0.1989145427942276</v>
       </c>
       <c r="K86" t="n">
         <v>0.1946667581796646</v>
@@ -4429,7 +4461,7 @@
         <v>0.05457974225282669</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05543661862611771</v>
+        <v>0.05546326190233231</v>
       </c>
     </row>
     <row r="111">
@@ -4466,7 +4498,7 @@
         <v>0.05666451528668404</v>
       </c>
       <c r="K111" t="n">
-        <v>0.05008880421519279</v>
+        <v>0.05008477717638016</v>
       </c>
       <c r="L111" t="n">
         <v>0.04442843422293663</v>
@@ -4540,10 +4572,10 @@
         <v>0.06584802269935608</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07382601499557495</v>
+        <v>0.07384372502565384</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0721244290471077</v>
+        <v>0.07213326543569565</v>
       </c>
     </row>
     <row r="114">
@@ -4805,12 +4837,24 @@
       <c r="F121" t="n">
         <v>0.1124652847647667</v>
       </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="G121" t="n">
+        <v>0.1039201989769936</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.1038253679871559</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.1020646691322327</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.1015805453062057</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.1039397716522217</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.09738174825906754</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -5077,7 +5121,7 @@
         <v>0.1193515285849571</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1057021021842957</v>
+        <v>0.1057044491171837</v>
       </c>
     </row>
     <row r="129">
@@ -5213,7 +5257,7 @@
         <v>0.05953678116202354</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05391252040863037</v>
+        <v>0.05389986932277679</v>
       </c>
     </row>
     <row r="133">
@@ -5320,28 +5364,28 @@
         <v>0.1033162921667099</v>
       </c>
       <c r="E136" t="n">
-        <v>0.1094397678971291</v>
+        <v>0.1094159185886383</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1095081195235252</v>
+        <v>0.1094894260168076</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1069212183356285</v>
+        <v>0.1069202274084091</v>
       </c>
       <c r="H136" t="n">
-        <v>0.1057436391711235</v>
+        <v>0.1057486012578011</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1070496439933777</v>
+        <v>0.1070524305105209</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1066804826259613</v>
+        <v>0.1066849902272224</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1010280400514603</v>
+        <v>0.1010274365544319</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09690041095018387</v>
+        <v>0.09689996391534805</v>
       </c>
     </row>
     <row r="137">
@@ -5446,22 +5490,22 @@
         <v>0.07508794963359833</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06585321575403214</v>
+        <v>0.06584490090608597</v>
       </c>
       <c r="H139" t="n">
-        <v>0.07272573560476303</v>
+        <v>0.07272046804428101</v>
       </c>
       <c r="I139" t="n">
-        <v>0.06948035955429077</v>
+        <v>0.06947577744722366</v>
       </c>
       <c r="J139" t="n">
-        <v>0.07026075571775436</v>
+        <v>0.07024940848350525</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05008601769804955</v>
+        <v>0.05008117109537125</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05477416142821312</v>
+        <v>0.05477181822061539</v>
       </c>
     </row>
     <row r="140">
@@ -5498,7 +5542,7 @@
         <v>0.055349450558424</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05629422888159752</v>
+        <v>0.05629117786884308</v>
       </c>
       <c r="L140" t="n">
         <v>0.0544554814696312</v>
@@ -5604,10 +5648,10 @@
         <v>0.07815615832805634</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06927083432674408</v>
+        <v>0.06916477531194687</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06694976985454559</v>
+        <v>0.06687909364700317</v>
       </c>
     </row>
     <row r="144">
@@ -5647,7 +5691,7 @@
         <v>0.06373903900384903</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06518841534852982</v>
+        <v>0.0652012899518013</v>
       </c>
     </row>
     <row r="145">
@@ -5795,7 +5839,7 @@
         <v>0.1299684047698975</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1287818998098373</v>
+        <v>0.1288827955722809</v>
       </c>
     </row>
     <row r="149">
@@ -5826,7 +5870,7 @@
         <v>0.01916225999593735</v>
       </c>
       <c r="K149" t="n">
-        <v>0.02727311663329601</v>
+        <v>0.02718683332204819</v>
       </c>
       <c r="L149" t="n">
         <v>0.03162859380245209</v>
@@ -6010,10 +6054,10 @@
         <v>0.08775644749403</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1104990988969803</v>
+        <v>0.1104913875460625</v>
       </c>
       <c r="L154" t="n">
-        <v>0.113009437918663</v>
+        <v>0.1130050346255302</v>
       </c>
     </row>
     <row r="155">
@@ -6093,7 +6137,7 @@
         <v>0.04137060791254044</v>
       </c>
       <c r="L156" t="n">
-        <v>0.03779972344636917</v>
+        <v>0.03778878226876259</v>
       </c>
     </row>
     <row r="157">
@@ -6461,7 +6505,7 @@
         <v>0.136515736579895</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1174165010452271</v>
+        <v>0.1174138560891151</v>
       </c>
     </row>
     <row r="167">
@@ -6513,7 +6557,7 @@
         <v>0.2453018128871918</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2988626658916473</v>
+        <v>0.2993465662002563</v>
       </c>
     </row>
     <row r="169">
@@ -6885,13 +6929,13 @@
         <v>0.04076249897480011</v>
       </c>
       <c r="H180" t="n">
-        <v>0.04229198768734932</v>
+        <v>0.04259345680475235</v>
       </c>
       <c r="I180" t="n">
-        <v>0.04190494120121002</v>
+        <v>0.04217927530407906</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04103341326117516</v>
+        <v>0.04131334647536278</v>
       </c>
       <c r="K180" t="n">
         <v>0.03949889913201332</v>
@@ -7276,10 +7320,10 @@
         <v>0.02925332076847553</v>
       </c>
       <c r="K192" t="n">
-        <v>0.04257848113775253</v>
+        <v>0.04259160161018372</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04543657973408699</v>
+        <v>0.04544446989893913</v>
       </c>
     </row>
     <row r="193">
@@ -7483,7 +7527,7 @@
         <v>0.09034785628318787</v>
       </c>
       <c r="D198" t="n">
-        <v>0.09973455220460892</v>
+        <v>0.1001559644937515</v>
       </c>
       <c r="E198" t="n">
         <v>0.07729075103998184</v>
@@ -7495,7 +7539,7 @@
         <v>0.06928510963916779</v>
       </c>
       <c r="H198" t="n">
-        <v>0.06708144396543503</v>
+        <v>0.06708826869726181</v>
       </c>
       <c r="I198" t="n">
         <v>0.0667756199836731</v>
@@ -7504,10 +7548,10 @@
         <v>0.06673690676689148</v>
       </c>
       <c r="K198" t="n">
-        <v>0.06210001930594444</v>
+        <v>0.06209561601281166</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05850392207503319</v>
+        <v>0.05850084125995636</v>
       </c>
     </row>
     <row r="199">
@@ -7534,10 +7578,10 @@
         <v>0.2018096894025803</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1879197210073471</v>
+        <v>0.1874911487102509</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1686256378889084</v>
+        <v>0.1682910025119781</v>
       </c>
     </row>
     <row r="200">
@@ -7681,7 +7725,7 @@
         <v>0.1249171867966652</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1298431754112244</v>
+        <v>0.129825547337532</v>
       </c>
     </row>
     <row r="204">
@@ -7785,19 +7829,19 @@
         <v>0.04672238230705261</v>
       </c>
       <c r="H206" t="n">
-        <v>0.0446016862988472</v>
+        <v>0.04460478574037552</v>
       </c>
       <c r="I206" t="n">
-        <v>0.04388071969151497</v>
+        <v>0.04388348013162613</v>
       </c>
       <c r="J206" t="n">
         <v>0.04344362765550613</v>
       </c>
       <c r="K206" t="n">
-        <v>0.03817965462803841</v>
+        <v>0.0381796769797802</v>
       </c>
       <c r="L206" t="n">
-        <v>0.03526796773076057</v>
+        <v>0.03526892140507698</v>
       </c>
     </row>
     <row r="207">
@@ -7856,7 +7900,7 @@
         <v>0.1417216062545776</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1111123785376549</v>
+        <v>0.1112425327301025</v>
       </c>
       <c r="L208" t="n">
         <v>0.1264002770185471</v>
@@ -7933,7 +7977,7 @@
         <v>0.1248046383261681</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1068939045071602</v>
+        <v>0.106873594224453</v>
       </c>
     </row>
     <row r="211">
@@ -7973,7 +8017,7 @@
         <v>0.06974434107542038</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06445968151092529</v>
+        <v>0.06426754593849182</v>
       </c>
     </row>
     <row r="212">
@@ -8120,10 +8164,10 @@
         <v>0.06993276625871658</v>
       </c>
       <c r="K215" t="n">
-        <v>0.06707435101270676</v>
+        <v>0.06705998629331589</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06359327584505081</v>
+        <v>0.06358384341001511</v>
       </c>
     </row>
     <row r="216">
@@ -8157,7 +8201,7 @@
         <v>0.2630665004253387</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1223267540335655</v>
+        <v>0.1222652569413185</v>
       </c>
     </row>
     <row r="217">
@@ -8639,7 +8683,7 @@
         <v>0.1577265858650208</v>
       </c>
       <c r="H229" t="n">
-        <v>0.1453938633203506</v>
+        <v>0.1445811837911606</v>
       </c>
       <c r="I229" t="n">
         <v>0.1349207162857056</v>
@@ -8761,7 +8805,7 @@
         <v>0.1444798111915588</v>
       </c>
       <c r="L232" t="n">
-        <v>0.1275866478681564</v>
+        <v>0.1275999546051025</v>
       </c>
     </row>
     <row r="233">
@@ -8786,13 +8830,13 @@
         <v>0.06804729253053665</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05597413331270218</v>
+        <v>0.05596669018268585</v>
       </c>
       <c r="H233" t="n">
-        <v>0.05660941079258919</v>
+        <v>0.05687085166573524</v>
       </c>
       <c r="I233" t="n">
-        <v>0.05795003473758698</v>
+        <v>0.05817196145653725</v>
       </c>
       <c r="J233" t="n">
         <v>0.05893246456980705</v>
@@ -8995,7 +9039,7 @@
         <v>0.08954079449176788</v>
       </c>
       <c r="H239" t="n">
-        <v>0.08607474714517593</v>
+        <v>0.08606838434934616</v>
       </c>
       <c r="I239" t="n">
         <v>0.08514982461929321</v>
@@ -9004,7 +9048,7 @@
         <v>0.0846196636557579</v>
       </c>
       <c r="K239" t="n">
-        <v>0.07540229707956314</v>
+        <v>0.07541857659816742</v>
       </c>
       <c r="L239" t="n">
         <v>0.06716335564851761</v>
@@ -9032,10 +9076,10 @@
         <v>0.1311711072921753</v>
       </c>
       <c r="I240" t="n">
-        <v>0.1215494200587273</v>
+        <v>0.120727650821209</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1202074512839317</v>
+        <v>0.1194130852818489</v>
       </c>
       <c r="K240" t="n">
         <v>0.1194625049829483</v>
@@ -9219,7 +9263,7 @@
         <v>0.07526569813489914</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07485099136829376</v>
+        <v>0.07484573125839233</v>
       </c>
     </row>
     <row r="246">
@@ -9336,10 +9380,10 @@
         <v>0.06428800523281097</v>
       </c>
       <c r="K248" t="n">
-        <v>0.08755074441432953</v>
+        <v>0.08737082034349442</v>
       </c>
       <c r="L248" t="n">
-        <v>0.08824723213911057</v>
+        <v>0.0881761834025383</v>
       </c>
     </row>
     <row r="249">
@@ -9466,22 +9510,22 @@
         <v>0.1698091328144073</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1315884739160538</v>
+        <v>0.1317688226699829</v>
       </c>
       <c r="H252" t="n">
-        <v>0.131179079413414</v>
+        <v>0.1312238425016403</v>
       </c>
       <c r="I252" t="n">
-        <v>0.1397302150726318</v>
+        <v>0.1397671848535538</v>
       </c>
       <c r="J252" t="n">
-        <v>0.1383598446846008</v>
+        <v>0.1384851783514023</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1282768845558167</v>
+        <v>0.1283101439476013</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1137433648109436</v>
+        <v>0.1138187646865845</v>
       </c>
     </row>
     <row r="253">
@@ -9607,15 +9651,23 @@
       <c r="F256" t="n">
         <v>0.06391904503107071</v>
       </c>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="G256" t="n">
+        <v>0.05967411771416664</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.06481929123401642</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.06489790976047516</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.06558600813150406</v>
+      </c>
       <c r="K256" t="n">
-        <v>0.0803702250123024</v>
+        <v>0.08034686744213104</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06909336149692535</v>
+        <v>0.06907909363508224</v>
       </c>
     </row>
     <row r="257">
@@ -9637,7 +9689,7 @@
         <v>0.09903688728809357</v>
       </c>
       <c r="F257" t="n">
-        <v>0.09363655000925064</v>
+        <v>0.09363902360200882</v>
       </c>
       <c r="G257" t="n">
         <v>0.06902113556861877</v>
@@ -9652,10 +9704,10 @@
         <v>0.06752850115299225</v>
       </c>
       <c r="K257" t="n">
-        <v>0.06399542838335037</v>
+        <v>0.06401073187589645</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0568196177482605</v>
+        <v>0.05682271718978882</v>
       </c>
     </row>
     <row r="258">
@@ -9822,22 +9874,22 @@
         <v>0.1383752524852753</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1181496605277061</v>
+        <v>0.1181482747197151</v>
       </c>
       <c r="H262" t="n">
-        <v>0.1172355562448502</v>
+        <v>0.1172175407409668</v>
       </c>
       <c r="I262" t="n">
-        <v>0.1145860552787781</v>
+        <v>0.1145849600434303</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1139827370643616</v>
+        <v>0.1139816418290138</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1159634739160538</v>
+        <v>0.1159962490200996</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1102019101381302</v>
+        <v>0.1102240905165672</v>
       </c>
     </row>
     <row r="263">
@@ -9862,7 +9914,7 @@
         <v>0.1386585980653763</v>
       </c>
       <c r="G263" t="n">
-        <v>0.09524329751729965</v>
+        <v>0.09526060521602631</v>
       </c>
       <c r="H263" t="n">
         <v>0.0978589802980423</v>
@@ -9871,13 +9923,13 @@
         <v>0.09534675627946854</v>
       </c>
       <c r="J263" t="n">
-        <v>0.09278088063001633</v>
+        <v>0.09279348701238632</v>
       </c>
       <c r="K263" t="n">
         <v>0.08981345593929291</v>
       </c>
       <c r="L263" t="n">
-        <v>0.08105824887752533</v>
+        <v>0.08106451481580734</v>
       </c>
     </row>
     <row r="264">
@@ -10066,10 +10118,10 @@
         <v>0.1843684613704681</v>
       </c>
       <c r="K268" t="n">
-        <v>0.1877191662788391</v>
+        <v>0.1877019703388214</v>
       </c>
       <c r="L268" t="n">
-        <v>0.1848137378692627</v>
+        <v>0.1847997456789017</v>
       </c>
     </row>
     <row r="269">
@@ -10291,7 +10343,7 @@
         <v>0.1267239600419998</v>
       </c>
       <c r="L274" t="n">
-        <v>0.1150676608085632</v>
+        <v>0.114990159869194</v>
       </c>
     </row>
     <row r="275">
@@ -10328,7 +10380,7 @@
         <v>0.1111264452338219</v>
       </c>
       <c r="K275" t="n">
-        <v>0.1170411333441734</v>
+        <v>0.1163698956370354</v>
       </c>
       <c r="L275" t="n">
         <v>0.1014602780342102</v>
@@ -10484,7 +10536,9 @@
       <c r="K280" t="n">
         <v>0.07918274402618408</v>
       </c>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>0.07599969208240509</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -10591,7 +10645,7 @@
         <v>0.1386574357748032</v>
       </c>
       <c r="L283" t="n">
-        <v>0.1073828861117363</v>
+        <v>0.1073684692382812</v>
       </c>
     </row>
     <row r="284">
@@ -10671,7 +10725,7 @@
         <v>0.09566004574298859</v>
       </c>
       <c r="L285" t="n">
-        <v>0.09679419547319412</v>
+        <v>0.09668117761611938</v>
       </c>
     </row>
     <row r="286">
@@ -10750,7 +10804,9 @@
       <c r="K287" t="n">
         <v>0.0690038725733757</v>
       </c>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>0.06601612269878387</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -10813,7 +10869,7 @@
         <v>0.0677642896771431</v>
       </c>
       <c r="L289" t="n">
-        <v>0.06881868839263916</v>
+        <v>0.06882274895906448</v>
       </c>
     </row>
     <row r="290">
@@ -10843,7 +10899,9 @@
       <c r="J290" t="n">
         <v>0.1192965880036354</v>
       </c>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>0.1331871151924133</v>
+      </c>
       <c r="L290" t="n">
         <v>0.118239127099514</v>
       </c>
@@ -10919,7 +10977,7 @@
         <v>0.02038520760834217</v>
       </c>
       <c r="L292" t="n">
-        <v>0.08376297354698181</v>
+        <v>0.08399870246648788</v>
       </c>
     </row>
     <row r="293">
@@ -10934,7 +10992,7 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="n">
-        <v>0.260885089635849</v>
+        <v>0.3032701909542084</v>
       </c>
       <c r="H293" t="n">
         <v>0.3125357627868652</v>
@@ -10943,10 +11001,10 @@
         <v>0.3143738806247711</v>
       </c>
       <c r="J293" t="n">
-        <v>0.2825850546360016</v>
+        <v>0.3143738806247711</v>
       </c>
       <c r="K293" t="n">
-        <v>0.2196020781993866</v>
+        <v>0.2237574756145477</v>
       </c>
       <c r="L293" t="n">
         <v>0.2167871594429016</v>
@@ -11221,9 +11279,11 @@
       <c r="J301" t="n">
         <v>0.209273174405098</v>
       </c>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>0.2069332301616669</v>
+      </c>
       <c r="L301" t="n">
-        <v>0.2216422557830811</v>
+        <v>0.2215545177459717</v>
       </c>
     </row>
     <row r="302">
@@ -11460,17 +11520,29 @@
         <v>0.08071938902139664</v>
       </c>
       <c r="E308" t="n">
-        <v>0.0678371861577034</v>
+        <v>0.06782044470310211</v>
       </c>
       <c r="F308" t="n">
-        <v>0.05760825425386429</v>
-      </c>
-      <c r="G308" t="inlineStr"/>
-      <c r="H308" t="inlineStr"/>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+        <v>0.05758609995245934</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05186677351593971</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.0532074011862278</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.0530746653676033</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.05255996063351631</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.05385212972760201</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0.04778869822621346</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -11916,7 +11988,7 @@
         <v>0.06540144234895706</v>
       </c>
       <c r="G321" t="n">
-        <v>0.0482170544564724</v>
+        <v>0.04815176501870155</v>
       </c>
       <c r="H321" t="n">
         <v>0.05510859191417694</v>
@@ -12011,7 +12083,7 @@
         <v>0.04953339695930481</v>
       </c>
       <c r="L323" t="n">
-        <v>0.046718530356884</v>
+        <v>0.0467107854783535</v>
       </c>
     </row>
     <row r="324">
@@ -12122,16 +12194,16 @@
         <v>0.2672814726829529</v>
       </c>
       <c r="I326" t="n">
-        <v>0.2602092325687408</v>
+        <v>0.2602192461490631</v>
       </c>
       <c r="J326" t="n">
-        <v>0.2549804449081421</v>
+        <v>0.2549906373023987</v>
       </c>
       <c r="K326" t="n">
-        <v>0.2533769905567169</v>
+        <v>0.2533441185951233</v>
       </c>
       <c r="L326" t="n">
-        <v>0.2465059161186218</v>
+        <v>0.2464821487665176</v>
       </c>
     </row>
     <row r="327">
@@ -12170,7 +12242,9 @@
       <c r="K327" t="n">
         <v>0.03685643896460533</v>
       </c>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>0.03379952535033226</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -12492,10 +12566,10 @@
         <v>0.0357678197324276</v>
       </c>
       <c r="K336" t="n">
-        <v>0.03980906307697296</v>
+        <v>0.03980765864253044</v>
       </c>
       <c r="L336" t="n">
-        <v>0.03659742325544357</v>
+        <v>0.03659652546048164</v>
       </c>
     </row>
     <row r="337">
@@ -12792,7 +12866,9 @@
       <c r="K344" t="n">
         <v>0.1207116842269897</v>
       </c>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>0.1093370690941811</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -12828,10 +12904,10 @@
         <v>0.04769136384129524</v>
       </c>
       <c r="K345" t="n">
-        <v>0.04514595121145248</v>
+        <v>0.045173529535532</v>
       </c>
       <c r="L345" t="n">
-        <v>0.04141587018966675</v>
+        <v>0.04140854626893997</v>
       </c>
     </row>
     <row r="346">
@@ -12865,7 +12941,7 @@
         <v>0.09568173438310623</v>
       </c>
       <c r="L346" t="n">
-        <v>0.0924399122595787</v>
+        <v>0.09242098033428192</v>
       </c>
     </row>
     <row r="347">
@@ -12895,7 +12971,7 @@
         <v>0.09170635789632797</v>
       </c>
       <c r="L347" t="n">
-        <v>0.06370466202497482</v>
+        <v>0.06356745958328247</v>
       </c>
     </row>
     <row r="348">
@@ -12935,7 +13011,7 @@
         <v>0.05731276795268059</v>
       </c>
       <c r="L348" t="n">
-        <v>0.04965632408857346</v>
+        <v>0.0496930219233036</v>
       </c>
     </row>
     <row r="349">
@@ -12972,10 +13048,10 @@
         <v>0.103793129324913</v>
       </c>
       <c r="K349" t="n">
-        <v>0.08298681676387787</v>
+        <v>0.08298227190971375</v>
       </c>
       <c r="L349" t="n">
-        <v>0.07436385005712509</v>
+        <v>0.0743611752986908</v>
       </c>
     </row>
     <row r="350">
@@ -13258,11 +13334,21 @@
       <c r="G357" t="n">
         <v>0.07875549048185349</v>
       </c>
-      <c r="H357" t="inlineStr"/>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="H357" t="n">
+        <v>0.0747620016336441</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.07276166975498199</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.0722348541021347</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.07246878743171692</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0.06191493943333626</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -13329,13 +13415,13 @@
         <v>0.08908911794424057</v>
       </c>
       <c r="H359" t="n">
-        <v>0.09287279844284058</v>
+        <v>0.09287181496620178</v>
       </c>
       <c r="I359" t="n">
-        <v>0.09527504444122314</v>
+        <v>0.09527415782213211</v>
       </c>
       <c r="J359" t="n">
-        <v>0.09701457619667053</v>
+        <v>0.09701370447874069</v>
       </c>
       <c r="K359" t="n">
         <v>0.07641890645027161</v>
@@ -13418,10 +13504,10 @@
         <v>0.06371946632862091</v>
       </c>
       <c r="K361" t="n">
-        <v>0.03428118675947189</v>
+        <v>0.03413755819201469</v>
       </c>
       <c r="L361" t="n">
-        <v>0.04132919758558273</v>
+        <v>0.04125158116221428</v>
       </c>
     </row>
     <row r="362">
@@ -13811,10 +13897,10 @@
         <v>0.09516332298517227</v>
       </c>
       <c r="H372" t="n">
-        <v>0.09036733210086823</v>
+        <v>0.09037049114704132</v>
       </c>
       <c r="I372" t="n">
-        <v>0.08986003696918488</v>
+        <v>0.08986296504735947</v>
       </c>
       <c r="J372" t="n">
         <v>0.09003344178199768</v>
